--- a/OUTPUT/BOM/Bill of Materials-MainBoard.xlsx
+++ b/OUTPUT/BOM/Bill of Materials-MainBoard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="284">
   <si>
     <t>Description</t>
   </si>
@@ -42,6 +42,9 @@
     <t/>
   </si>
   <si>
+    <t>M1, M2, M3, M4, M5, M6, M7</t>
+  </si>
+  <si>
     <t>STM32F405RGT6</t>
   </si>
   <si>
@@ -54,133 +57,166 @@
     <t>LSM9DS1</t>
   </si>
   <si>
+    <t>DD10</t>
+  </si>
+  <si>
+    <t>5-A, Wide Input Range, Step-Down Converter</t>
+  </si>
+  <si>
+    <t>TPS5450</t>
+  </si>
+  <si>
+    <t>DD12</t>
+  </si>
+  <si>
+    <t>TPS54560BQDDAQ1</t>
+  </si>
+  <si>
+    <t>DD11, DD13</t>
+  </si>
+  <si>
+    <t>9-Port 10/100 Unmanaged Ethernet Switch</t>
+  </si>
+  <si>
+    <t>KSZ8999I</t>
+  </si>
+  <si>
+    <t>DD6</t>
+  </si>
+  <si>
+    <t>400-mA Low-Dropout Regulator with Reverse Current  Protection</t>
+  </si>
+  <si>
+    <t>TPS73618DBV</t>
+  </si>
+  <si>
+    <t>DA4</t>
+  </si>
+  <si>
+    <t>Cтабилитрон (лавинный выпрямительный диод) односторонний</t>
+  </si>
+  <si>
+    <t>TPSMB56A</t>
+  </si>
+  <si>
+    <t>VD20, VD21</t>
+  </si>
+  <si>
+    <t>DC/DC преобразователь</t>
+  </si>
+  <si>
+    <t>P6AU/IU-3R305ELF</t>
+  </si>
+  <si>
+    <t>DD5, DD14</t>
+  </si>
+  <si>
+    <t>DIP переключатель</t>
+  </si>
+  <si>
+    <t>SW1, SW3, SW4</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>EMI Suppression Filter</t>
+  </si>
+  <si>
+    <t>B82477G4153M000</t>
+  </si>
+  <si>
+    <t>15мкГн</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>B82477G4223M000</t>
+  </si>
+  <si>
+    <t>22мкГн</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>H1164NL</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>SDR0604- 180YL</t>
+  </si>
+  <si>
+    <t>18мкГн</t>
+  </si>
+  <si>
+    <t>L1, L7</t>
+  </si>
+  <si>
+    <t>SDR1006-4R7ML</t>
+  </si>
+  <si>
+    <t>4,7мкГн</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>Isolated CAN Transceiver</t>
+  </si>
+  <si>
+    <t>ISO1050DW</t>
+  </si>
+  <si>
+    <t>DD3, DD4</t>
+  </si>
+  <si>
+    <t>SPI Serial Flash  Memory</t>
+  </si>
+  <si>
+    <t>AT25DF021-SSH-B</t>
+  </si>
+  <si>
     <t>DD2</t>
   </si>
   <si>
-    <t>4K Microwire Compatible Serial EEPROM</t>
-  </si>
-  <si>
-    <t>93LC66A-I/SN</t>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>PESD1CAN</t>
+  </si>
+  <si>
+    <t>DA1, DA2</t>
+  </si>
+  <si>
+    <t>SM712.TCT</t>
+  </si>
+  <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>Two-wire  Serial EEPROM</t>
+  </si>
+  <si>
+    <t>AT24C02N-10SU-2.7</t>
   </si>
   <si>
     <t>DD7</t>
   </si>
   <si>
-    <t>5-A, Wide Input Range, Step-Down Converter</t>
-  </si>
-  <si>
-    <t>TPS54560BQDDAQ1</t>
-  </si>
-  <si>
-    <t>DD8, DD9, DD10</t>
-  </si>
-  <si>
-    <t>400-mA Low-Dropout Regulator with Reverse Current  Protection</t>
-  </si>
-  <si>
-    <t>TPS73618DBV</t>
-  </si>
-  <si>
-    <t>DA6</t>
-  </si>
-  <si>
-    <t>Cтабилитрон (лавинный выпрямительный диод) односторонний</t>
-  </si>
-  <si>
-    <t>TPSMB56A</t>
-  </si>
-  <si>
-    <t>VD4</t>
-  </si>
-  <si>
-    <t>DC/DC преобразователь изолированный</t>
-  </si>
-  <si>
-    <t>PDM1-S3-S12-S</t>
-  </si>
-  <si>
-    <t>DD5</t>
-  </si>
-  <si>
-    <t>EMI Suppression Filter</t>
-  </si>
-  <si>
-    <t>BLM18PG181SN1D</t>
-  </si>
-  <si>
-    <t>L2, L5</t>
-  </si>
-  <si>
-    <t>SDR0302-6R8ML</t>
-  </si>
-  <si>
-    <t>6,8мкГн</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>SDR1006-5R6ML</t>
-  </si>
-  <si>
-    <t>5,6мкГн</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>SDR1006- 120ML</t>
-  </si>
-  <si>
-    <t>12мкГн</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>SDR1006- 560KL</t>
-  </si>
-  <si>
-    <t>56мкГн</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>Isolated CAN Transceiver with Integrated Isolated DC-to-DC Converter</t>
-  </si>
-  <si>
-    <t>ADM3053BRWZ</t>
-  </si>
-  <si>
-    <t>DD3, DD4</t>
-  </si>
-  <si>
-    <t>MICRO USD</t>
-  </si>
-  <si>
-    <t>Molex 5031821852</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>TVS</t>
-  </si>
-  <si>
-    <t>PESD1CAN</t>
-  </si>
-  <si>
-    <t>DA1, DA2</t>
-  </si>
-  <si>
     <t>USB 2.0 Hub and 10/100 Ethernet Controller</t>
   </si>
   <si>
     <t>LAN9514I</t>
   </si>
   <si>
-    <t>DD6</t>
+    <t>DD8</t>
   </si>
   <si>
     <t>Диод Шоттки</t>
@@ -189,7 +225,13 @@
     <t>B560C</t>
   </si>
   <si>
-    <t>VD5, VD7, VD9</t>
+    <t>VD22, VD24, VD26</t>
+  </si>
+  <si>
+    <t>MBR2H100SFT3G</t>
+  </si>
+  <si>
+    <t>VD27, VD28</t>
   </si>
   <si>
     <t>MBR0540</t>
@@ -210,7 +252,16 @@
     <t>KXO-V97 25.0 MHz</t>
   </si>
   <si>
-    <t>G2</t>
+    <t>G2, G3</t>
+  </si>
+  <si>
+    <t>Комплементарная сборка МОП</t>
+  </si>
+  <si>
+    <t>IRF7509TRPBF</t>
+  </si>
+  <si>
+    <t>VT1, VT2, VT3, VT4, VT5, VT6, VT7, VT8, VT9, VT10, VT11, VT12, VT13, VT14, VT15, VT16, VT17, VT18, VT19, VT20</t>
   </si>
   <si>
     <t>Конденсатор</t>
@@ -225,7 +276,7 @@
     <t>50В</t>
   </si>
   <si>
-    <t>C6, C18, C25, C31, C38</t>
+    <t>C8, C87, C121, C128</t>
   </si>
   <si>
     <t>C4532C0G1H154J250KA </t>
@@ -234,7 +285,7 @@
     <t>0,15мк</t>
   </si>
   <si>
-    <t>C101, C114, C123</t>
+    <t>C145, C163</t>
   </si>
   <si>
     <t>C4532X7R2A225M</t>
@@ -246,7 +297,19 @@
     <t>100В</t>
   </si>
   <si>
-    <t>C104, C105, C106, C107, C115, C116, C117, C118, C124, C125, C126, C127</t>
+    <t>C147, C148, C149, C150, C164, C165, C166, C167</t>
+  </si>
+  <si>
+    <t>CC1206KKX7RDBB471 </t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>2кВ</t>
+  </si>
+  <si>
+    <t>C27, C172</t>
   </si>
   <si>
     <t>GRM21AR72E472KW</t>
@@ -258,121 +321,142 @@
     <t>250В</t>
   </si>
   <si>
-    <t>C90</t>
-  </si>
-  <si>
-    <t>GRM21BR71C475KA73L</t>
+    <t>C143</t>
+  </si>
+  <si>
+    <t>GRM21BZ71H475KE15L</t>
   </si>
   <si>
     <t>4,7мк</t>
   </si>
   <si>
+    <t>C156, C157</t>
+  </si>
+  <si>
+    <t>GRM31CR72E104K</t>
+  </si>
+  <si>
+    <t>0,1мк</t>
+  </si>
+  <si>
+    <t>C135, C136, C137, C138</t>
+  </si>
+  <si>
+    <t>GRM155R71H102K*</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>50B</t>
+  </si>
+  <si>
+    <t>C94, C95, C98, C101</t>
+  </si>
+  <si>
+    <t>GRM155R71H103K</t>
+  </si>
+  <si>
+    <t>0,01мк</t>
+  </si>
+  <si>
+    <t>C15, C20, C120</t>
+  </si>
+  <si>
+    <t>C124, C125, C134, C153, C158, C159</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14D </t>
+  </si>
+  <si>
+    <t>C3, C5, C6, C9, C10, C11, C12, C13, C14, C17, C18, C22, C23, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C79, C80, C89, C90, C91, C92, C93, C96, C97, C99, C100, C102, C103, C104, C105, C106, C107, C108, C109, C110, C111, C112, C113, C114, C115, C116, C117, C119, C122, C123, C126, C127, C129, C130, C131, C132, C133, C154, C155, C173, C174</t>
+  </si>
+  <si>
+    <t>C144, C161</t>
+  </si>
+  <si>
+    <t>GRM188R71C105KA12D**</t>
+  </si>
+  <si>
+    <t>1мк</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>C4, C7, C16, C19, C21, C24, C88, C118</t>
+  </si>
+  <si>
+    <t>GRM188R71H104KA93D</t>
+  </si>
+  <si>
+    <t>C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45</t>
+  </si>
+  <si>
+    <t>GRM188Z71C225ME43J</t>
+  </si>
+  <si>
+    <t>C1, C2, C25, C26, C170, C171</t>
+  </si>
+  <si>
+    <t>GRM1555C1H5R6C</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>C151</t>
+  </si>
+  <si>
+    <t>GRM1555C1H102J</t>
+  </si>
+  <si>
+    <t>C169</t>
+  </si>
+  <si>
+    <t>GRM1555C1H391J</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>C168</t>
+  </si>
+  <si>
+    <t>GRM1555C1H561J</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>C152</t>
+  </si>
+  <si>
+    <t>Конденсатор полярный</t>
+  </si>
+  <si>
+    <t>293D107X9016D2TE3</t>
+  </si>
+  <si>
+    <t>100мк</t>
+  </si>
+  <si>
     <t>16В</t>
   </si>
   <si>
-    <t>C29, C39, C40, C85</t>
-  </si>
-  <si>
-    <t>GRM21BZ71H475KE15L</t>
-  </si>
-  <si>
-    <t>C59, C60</t>
-  </si>
-  <si>
-    <t>GRM31CR72E104K</t>
-  </si>
-  <si>
-    <t>0,1мк</t>
-  </si>
-  <si>
-    <t>C95, C96</t>
-  </si>
-  <si>
-    <t>GRM155R71H103K</t>
-  </si>
-  <si>
-    <t>0,01мк</t>
-  </si>
-  <si>
-    <t>50B</t>
-  </si>
-  <si>
-    <t>C17, C28</t>
-  </si>
-  <si>
-    <t>C21, C22, C27, C34, C35</t>
-  </si>
-  <si>
-    <t>GRM155R71H104KE14D </t>
-  </si>
-  <si>
-    <t>C3, C4, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C19, C20, C23, C24, C26, C30, C32, C33, C36, C37, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C77, C78, C84, C86, C87, C89, C92, C93, C102, C103, C111</t>
-  </si>
-  <si>
-    <t>C99, C112, C121</t>
-  </si>
-  <si>
-    <t>GRM155R71H223K</t>
-  </si>
-  <si>
-    <t>0,022мк</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>GRM188R71C105KA12D**</t>
-  </si>
-  <si>
-    <t>1мк</t>
-  </si>
-  <si>
-    <t>16B</t>
-  </si>
-  <si>
-    <t>C5, C47, C48, C49, C50, C88, C91, C94, C110</t>
-  </si>
-  <si>
-    <t>GRM188R71H104KA93D</t>
-  </si>
-  <si>
-    <t>C41, C42, C43, C44, C45, C46, C51, C52, C53, C54, C55, C56, C57, C58</t>
-  </si>
-  <si>
-    <t>GRM188Z71C225ME43J</t>
-  </si>
-  <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>GRM1555C1H102J</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>C109, C120, C129</t>
-  </si>
-  <si>
-    <t>GRM1555C1H180J</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>C79, C80, C81, C82</t>
-  </si>
-  <si>
-    <t>GRM1555C1H391J</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>C108, C119, C128</t>
-  </si>
-  <si>
-    <t>Конденсатор полярный</t>
+    <t>C160</t>
+  </si>
+  <si>
+    <t>EEH-ZE1V151V</t>
+  </si>
+  <si>
+    <t>150мк</t>
+  </si>
+  <si>
+    <t>35В</t>
+  </si>
+  <si>
+    <t>C146</t>
   </si>
   <si>
     <t>EEU-FS1K121LB</t>
@@ -384,19 +468,16 @@
     <t>80В</t>
   </si>
   <si>
-    <t>C97, C98</t>
+    <t>C139, C140, C141, C142</t>
   </si>
   <si>
     <t>TPSD157K010R0050</t>
   </si>
   <si>
-    <t>150мк</t>
-  </si>
-  <si>
     <t>10B</t>
   </si>
   <si>
-    <t>C100, C113, C122</t>
+    <t>C162</t>
   </si>
   <si>
     <t>Опторазвязка</t>
@@ -405,7 +486,16 @@
     <t>FODM8801A</t>
   </si>
   <si>
-    <t>DA3, DA4, DA5</t>
+    <t>DA5, DA6</t>
+  </si>
+  <si>
+    <t>Приемопередатчик RS485 изолированный</t>
+  </si>
+  <si>
+    <t>ADM2582EBRWZ</t>
+  </si>
+  <si>
+    <t>DD9</t>
   </si>
   <si>
     <t>Разъем - 2 конт. розетка</t>
@@ -414,54 +504,99 @@
     <t>559320210</t>
   </si>
   <si>
-    <t>X6, X7</t>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>Разъем - 3 конт. розетка</t>
+  </si>
+  <si>
+    <t>559320310</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>Разъем - 4 конт. розетка</t>
+  </si>
+  <si>
+    <t>559320410</t>
+  </si>
+  <si>
+    <t>X2, X3</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>Разъем - 5 конт. розетка</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>532580529</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>Разъем - 9 конт. розетка</t>
+  </si>
+  <si>
+    <t>100616-1</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
   </si>
   <si>
     <t>X8</t>
   </si>
   <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>1723101102</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>Разъем - 3 конт. розетка</t>
-  </si>
-  <si>
-    <t>559320310</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>Разъем - 4 конт. розетка</t>
-  </si>
-  <si>
-    <t>559320410</t>
-  </si>
-  <si>
-    <t>X3, X4</t>
-  </si>
-  <si>
-    <t>Разъем - 5 конт. розетка</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>Разъем - 6 конт. вилка</t>
-  </si>
-  <si>
-    <t>1840419-3</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
     <t>Разъем - 10 конт. розетка</t>
   </si>
   <si>
@@ -480,16 +615,25 @@
     <t>1,2к</t>
   </si>
   <si>
-    <t>R80</t>
-  </si>
-  <si>
-    <t>RC0402FR-071K5</t>
-  </si>
-  <si>
-    <t>1,5к</t>
-  </si>
-  <si>
-    <t>R87, R94</t>
+    <t>R143</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
+  </si>
+  <si>
+    <t>1к</t>
+  </si>
+  <si>
+    <t>R65, R68, R69, R72, R73, R76, R78, R81</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K2</t>
+  </si>
+  <si>
+    <t>2,2к</t>
+  </si>
+  <si>
+    <t>R152</t>
   </si>
   <si>
     <t>RC0402FR-072K6</t>
@@ -498,7 +642,25 @@
     <t>3,6к</t>
   </si>
   <si>
-    <t>R85, R91, R97</t>
+    <t>R151, R156</t>
+  </si>
+  <si>
+    <t>RC0402FR-073K01L</t>
+  </si>
+  <si>
+    <t>3,01к</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K3</t>
+  </si>
+  <si>
+    <t>4,3к</t>
+  </si>
+  <si>
+    <t>R141</t>
   </si>
   <si>
     <t>RC0402FR-074K7</t>
@@ -507,7 +669,7 @@
     <t>4,7к</t>
   </si>
   <si>
-    <t>R9</t>
+    <t>R123</t>
   </si>
   <si>
     <t>RC0402FR-0710KL</t>
@@ -516,16 +678,7 @@
     <t>10к</t>
   </si>
   <si>
-    <t>R1, R8, R10, R11, R24, R25, R26, R27, R28, R29, R38, R44, R48, R52, R61, R62, R65, R71, R72, R73, R74, R75</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710RL</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R60</t>
+    <t>R1, R2, R9, R10, R13, R16, R17, R39, R40, R41, R48, R49, R50, R51, R93, R94, R98, R101, R106, R110, R111, R113, R114</t>
   </si>
   <si>
     <t>RC0402FR-0712K4L</t>
@@ -534,7 +687,7 @@
     <t>12,4к</t>
   </si>
   <si>
-    <t>R68</t>
+    <t>R96</t>
   </si>
   <si>
     <t>RC0402FR-0712KL</t>
@@ -543,16 +696,16 @@
     <t>12к</t>
   </si>
   <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>RC0402FR-0730KL</t>
-  </si>
-  <si>
-    <t>30к</t>
-  </si>
-  <si>
-    <t>R78, R93</t>
+    <t>R95</t>
+  </si>
+  <si>
+    <t>RC0402FR-0734K8L</t>
+  </si>
+  <si>
+    <t>34,8к</t>
+  </si>
+  <si>
+    <t>R140</t>
   </si>
   <si>
     <t>RC0402FR-0747RL</t>
@@ -561,7 +714,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>R2, R3, R4, R5, R6, R7, R12, R13, R14, R15, R17, R18, R20, R21, R22, R23, R30, R32, R33, R35, R36, R37, R46, R50, R54</t>
+    <t>R3, R4, R5, R6, R7, R8, R102, R103, R104, R112, R115, R116, R117, R118, R119, R120, R121, R122, R124, R125, R126, R127, R128, R129, R130, R131, R132, R133, R134</t>
   </si>
   <si>
     <t>RC0402FR-0749R9L</t>
@@ -570,16 +723,7 @@
     <t>49,9</t>
   </si>
   <si>
-    <t>R56, R57, R58, R59</t>
-  </si>
-  <si>
-    <t>RC0402FR-0751KL</t>
-  </si>
-  <si>
-    <t>51к</t>
-  </si>
-  <si>
-    <t>R86</t>
+    <t>R66, R67, R70, R71, R74, R75, R79, R80, R82, R83, R85, R86, R88, R89, R91, R92</t>
   </si>
   <si>
     <t>RC0402FR-0762RL</t>
@@ -588,34 +732,25 @@
     <t>62</t>
   </si>
   <si>
-    <t>R16, R19, R31, R34</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100KL</t>
-  </si>
-  <si>
-    <t>100к</t>
-  </si>
-  <si>
-    <t>R39, R40, R41, R42, R43</t>
-  </si>
-  <si>
-    <t>RC0402FR-07110KL</t>
-  </si>
-  <si>
-    <t>110к</t>
-  </si>
-  <si>
-    <t>R92</t>
-  </si>
-  <si>
-    <t>RC0402FR-07120RL</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>R81</t>
+    <t>R11, R12, R14, R15, R105, R109</t>
+  </si>
+  <si>
+    <t>RC0402FR-0775RL</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>R77, R84, R87, R90</t>
+  </si>
+  <si>
+    <t>RC0402FR-07150RL</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>R150, R158, R159, R162, R163</t>
   </si>
   <si>
     <t>RC0402FR-07154KL</t>
@@ -624,7 +759,25 @@
     <t>154к</t>
   </si>
   <si>
-    <t>R82, R89, R95</t>
+    <t>R142, R154</t>
+  </si>
+  <si>
+    <t>RC0402FR-07160KL</t>
+  </si>
+  <si>
+    <t>160к</t>
+  </si>
+  <si>
+    <t>R145</t>
+  </si>
+  <si>
+    <t>RC0402FR-07160RL</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R31, R32, R33</t>
   </si>
   <si>
     <t>RC0402FR-07330RL</t>
@@ -633,28 +786,13 @@
     <t>330</t>
   </si>
   <si>
-    <t>R63, R64</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>RC0402FR-07360RL</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>R88</t>
+    <t>R97, R99, R100</t>
   </si>
   <si>
     <t>RC0402FR-07560RL</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>R45, R47, R49, R51, R53, R55</t>
+    <t>R107, R108, R157, R160, R161, R164</t>
   </si>
   <si>
     <t>RC0603FR-070RL</t>
@@ -663,13 +801,22 @@
     <t>0</t>
   </si>
   <si>
-    <t>R69, R77, R79, R83</t>
+    <t>R135, R137, R138, R139, R144, R146, R147, R148</t>
   </si>
   <si>
     <t>RC0603FR-0710KL</t>
   </si>
   <si>
-    <t>R76, R84, R90, R96</t>
+    <t>R155</t>
+  </si>
+  <si>
+    <t>RC0603FR-0715KL</t>
+  </si>
+  <si>
+    <t>15к</t>
+  </si>
+  <si>
+    <t>R153</t>
   </si>
   <si>
     <t>RC0805FR-071ML</t>
@@ -678,37 +825,49 @@
     <t>1М</t>
   </si>
   <si>
-    <t>R67</t>
+    <t>R136</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>R149</t>
   </si>
   <si>
     <t>Светодиод</t>
   </si>
   <si>
+    <t>KPHHS-1005MGCK </t>
+  </si>
+  <si>
+    <t>VD2, VD3, VD6, VD7, VD10, VD18</t>
+  </si>
+  <si>
     <t>KPHHS-1005SURCK</t>
   </si>
   <si>
-    <t>VD6, VD8, VD10</t>
-  </si>
-  <si>
-    <t>TO-1608BC-BF</t>
-  </si>
-  <si>
-    <t>VD2</t>
-  </si>
-  <si>
-    <t>TO-1608BC-MRE</t>
-  </si>
-  <si>
-    <t>VD3</t>
+    <t>VD5, VD9, VD13, VD15, VD16, VD17, VD23, VD25</t>
+  </si>
+  <si>
+    <t>KPHHS-1005SYCK</t>
+  </si>
+  <si>
+    <t>VD4, VD8, VD11, VD12, VD14, VD19</t>
   </si>
   <si>
     <t>Синфазный дроссель</t>
   </si>
   <si>
-    <t>SRF0703-4R7M</t>
-  </si>
-  <si>
-    <t>4,7мкГн</t>
+    <t>DLW21SN900SQ2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>SRF0703-1R0M</t>
+  </si>
+  <si>
+    <t>1мкГн</t>
   </si>
   <si>
     <t>L3</t>
@@ -1068,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1106,29 +1265,27 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1136,15 +1293,15 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1152,47 +1309,47 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1200,15 +1357,15 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1216,17 +1373,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1237,50 +1392,40 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1288,17 +1433,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1306,31 +1447,35 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1338,79 +1483,83 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1418,175 +1567,143 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1594,139 +1711,135 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -1734,39 +1847,39 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1">
         <v>4</v>
@@ -1774,19 +1887,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
@@ -1794,119 +1907,139 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -1914,15 +2047,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -1930,29 +2067,39 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -1960,15 +2107,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -1976,15 +2127,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -1992,71 +2147,71 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -2064,35 +2219,31 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F56" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2100,17 +2251,15 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -2118,17 +2267,15 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -2136,71 +2283,63 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F61" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -2208,53 +2347,47 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F65" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -2262,17 +2395,15 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -2280,35 +2411,31 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F69" s="1">
         <v>2</v>
@@ -2316,17 +2443,15 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -2334,17 +2459,15 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -2352,71 +2475,61 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F72" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="F74" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -2424,31 +2537,31 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F76" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
@@ -2456,15 +2569,15 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
@@ -2472,19 +2585,567 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F79" s="1">
+      <c r="D91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F100" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F101" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F107" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F110" s="1">
         <v>1</v>
       </c>
     </row>
